--- a/backend/relatorio.xlsx
+++ b/backend/relatorio.xlsx
@@ -122,7 +122,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -361,7 +361,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
-        <v>150900</v>
+        <v>139279</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -372,23 +372,23 @@
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>44510</v>
+        <v>44433</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>44627</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>CASSANDRA ALVES DA SILVA</t>
+          <t>KÊNIA EDUARDA LEITE DOS SANTOS</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
@@ -397,28 +397,28 @@
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>70.80</v>
+        <v>71.73</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.34625</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>94192</v>
+        <v>79893</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>94192</v>
+        <v>79893</v>
       </c>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="AG2" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="0" t="inlineStr">
         <is>
@@ -469,7 +469,7 @@
       </c>
       <c r="AJ2" s="0"/>
       <c r="AK2" s="0" t="n">
-        <v>9862</v>
+        <v>9724</v>
       </c>
       <c r="AL2" s="0" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
       </c>
       <c r="AM2" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001750900401014189170000006900</t>
+          <t>03399989731000000001739279401010689170000006990</t>
         </is>
       </c>
       <c r="AN2" s="0"/>
@@ -502,7 +502,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
-        <v>135956</v>
+        <v>155130</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -513,23 +513,23 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44407</v>
+        <v>44551</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>44635</v>
+        <v>44641</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>59.90</v>
+        <v>50.00</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>59.90</v>
+        <v>50.00</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>ALDO FERREIRA DOS SANTOS</t>
+          <t>AURIVONEIDE MARIA SANTOS</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
@@ -538,28 +538,28 @@
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>61.35</v>
+        <v>51.16</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>75143</v>
+        <v>101104</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>75143</v>
+        <v>101104</v>
       </c>
       <c r="S3" s="0"/>
       <c r="T3" s="0"/>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="0" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="AJ3" s="0"/>
       <c r="AK3" s="0" t="n">
-        <v>8358</v>
+        <v>2817</v>
       </c>
       <c r="AL3" s="0" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="AM3" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001735956801019789250000005990</t>
+          <t>03399989731000000001755130201019989310000005000</t>
         </is>
       </c>
       <c r="AN3" s="0"/>
@@ -643,7 +643,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
-        <v>164303</v>
+        <v>148999</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -654,23 +654,23 @@
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44609</v>
+        <v>44490</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>64.91</v>
+        <v>59.90</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>64.91</v>
+        <v>59.90</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>ALUISIO PEREIRA DOS SANTOS</t>
+          <t>MARIA AUREA LAUREANO LIMA SILVA</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
@@ -679,28 +679,28 @@
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>66.46</v>
+        <v>61.17</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>112885</v>
+        <v>92332</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>112885</v>
+        <v>92332</v>
       </c>
       <c r="S4" s="0"/>
       <c r="T4" s="0"/>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="AG4" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="0" t="inlineStr">
         <is>
@@ -751,16 +751,16 @@
       </c>
       <c r="AJ4" s="0"/>
       <c r="AK4" s="0" t="n">
-        <v>10012</v>
+        <v>8624</v>
       </c>
       <c r="AL4" s="0" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AM4" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001764303701011589250000006491</t>
+          <t>03399989731000000001748999201014889350000005990</t>
         </is>
       </c>
       <c r="AN4" s="0"/>
@@ -784,7 +784,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
-        <v>158250</v>
+        <v>152602</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
@@ -795,23 +795,23 @@
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>44583</v>
+        <v>44530</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>32.45</v>
+        <v>69.00</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>32.45</v>
+        <v>69.00</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>MAYARA NUNES DA SILVA (MEIA CORTESIA)</t>
+          <t>POLIANA DE SOUSA COSTA</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
@@ -820,28 +820,28 @@
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>33.16</v>
+        <v>70.46</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>105543</v>
+        <v>97227</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>105543</v>
+        <v>97227</v>
       </c>
       <c r="S5" s="0"/>
       <c r="T5" s="0"/>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="AG5" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="0" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
       </c>
       <c r="AJ5" s="0"/>
       <c r="AK5" s="0" t="n">
-        <v>8001</v>
+        <v>9893</v>
       </c>
       <c r="AL5" s="0" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
       </c>
       <c r="AM5" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001758250001011589310000003245</t>
+          <t>03399989731000000001752602201015889350000006900</t>
         </is>
       </c>
       <c r="AN5" s="0"/>
@@ -925,7 +925,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
-        <v>135618</v>
+        <v>146207</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -936,23 +936,23 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44404</v>
+        <v>44473</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>44641</v>
+        <v>44645</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>CRISTINA DA COSTA AMÂNCIO</t>
+          <t>MARIA JOSICLEIDE DA SILVA GUEDES</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
@@ -961,28 +961,28 @@
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>71.44</v>
+        <v>70.46</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>74808</v>
+        <v>88224</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>74808</v>
+        <v>88224</v>
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="AG6" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="0" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="AJ6" s="0"/>
       <c r="AK6" s="0" t="n">
-        <v>8771</v>
+        <v>9801</v>
       </c>
       <c r="AL6" s="0" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="AM6" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001735618601013689310000006990</t>
+          <t>03399989731000000001746207501019889350000006900</t>
         </is>
       </c>
       <c r="AN6" s="0"/>
@@ -1066,7 +1066,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
-        <v>144646</v>
+        <v>145191</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -1077,23 +1077,23 @@
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>59.90</v>
+        <v>79.90</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>59.90</v>
+        <v>79.90</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>MARIA APARECIDA MACIEL MARQUES</t>
+          <t>EDUARDA VIRGINIA DOS SANTOS FORMIGA</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>61.15</v>
+        <v>81.62</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.34625</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>86670</v>
+        <v>87214</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>86670</v>
+        <v>87214</v>
       </c>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="AG7" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH7" s="0" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="AJ7" s="0"/>
       <c r="AK7" s="0" t="n">
-        <v>8251</v>
+        <v>8583</v>
       </c>
       <c r="AL7" s="0" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="AM7" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001744646001014689350000005990</t>
+          <t>03399989731000000001745191001010189350000007990</t>
         </is>
       </c>
       <c r="AN7" s="0"/>
@@ -1207,7 +1207,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
-        <v>152080</v>
+        <v>156459</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
@@ -1218,23 +1218,23 @@
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44523</v>
+        <v>44564</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>69.90</v>
+        <v>50.00</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>69.90</v>
+        <v>50.00</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>LINDONEIDE SOUZA BRITO DE FARIAS</t>
+          <t>JOSÉ AILTON NEVES</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
@@ -1243,28 +1243,28 @@
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>71.35</v>
+        <v>51.08</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346284722</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>96709</v>
+        <v>102445</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>96709</v>
+        <v>102445</v>
       </c>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="AG8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="0" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
         </is>
       </c>
       <c r="AI8" s="0" t="n">
-        <v>0</v>
+        <v>2854</v>
       </c>
       <c r="AJ8" s="0"/>
       <c r="AK8" s="0" t="n">
-        <v>9881</v>
+        <v>2854</v>
       </c>
       <c r="AL8" s="0" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="AM8" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001752080601017789350000006990</t>
+          <t>03399989731000000001756459501013689350000005000</t>
         </is>
       </c>
       <c r="AN8" s="0"/>
@@ -1348,7 +1348,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
-        <v>149017</v>
+        <v>144941</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2</v>
@@ -1359,23 +1359,23 @@
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44490</v>
+        <v>44467</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>GIVALDO BALBINO DOS SANTOS</t>
+          <t>MARIA DO SOCORRO DE LIMA SOUZA</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
@@ -1384,28 +1384,28 @@
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>71.35</v>
+        <v>70.46</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.34625</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>92350</v>
+        <v>86965</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>92350</v>
+        <v>86965</v>
       </c>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="AG9" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9" s="0" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="AJ9" s="0"/>
       <c r="AK9" s="0" t="n">
-        <v>9342</v>
+        <v>8518</v>
       </c>
       <c r="AL9" s="0" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="AM9" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001749017601011389350000006990</t>
+          <t>03399989731000000001744941901017189350000006900</t>
         </is>
       </c>
       <c r="AN9" s="0"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
-        <v>140066</v>
+        <v>155451</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -1500,23 +1500,23 @@
         </is>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44439</v>
+        <v>44551</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>69.00</v>
+        <v>59.00</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>69.00</v>
+        <v>59.00</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>VERÔNICA MARIA NASCIMENTO</t>
+          <t>JUSCIARA DAIANE DOS SANTOS</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>70.44</v>
+        <v>60.26</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346273148</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>80681</v>
+        <v>101423</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>80681</v>
+        <v>101423</v>
       </c>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="AG10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="0" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="AJ10" s="0"/>
       <c r="AK10" s="0" t="n">
-        <v>2963</v>
+        <v>2899</v>
       </c>
       <c r="AL10" s="0" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="AM10" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001740066501012889350000006900</t>
+          <t>03399989731000000001755451401016389350000005900</t>
         </is>
       </c>
       <c r="AN10" s="0"/>
@@ -1630,7 +1630,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
-        <v>155427</v>
+        <v>164162</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44551</v>
+        <v>44608</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>44645</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>MARIA JUCINEIDE DE LUCENA CAMPOS</t>
+          <t>MARIA HOSANA E FONTE LAUREANO</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
@@ -1666,28 +1666,28 @@
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>71.35</v>
+        <v>71.38</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>44649.338171296</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>101399</v>
+        <v>44650.346296296</v>
+      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0" t="inlineStr">
+        <is>
+          <t>111424/0</t>
+        </is>
       </c>
       <c r="R11" s="0" t="n">
-        <v>101399</v>
+        <v>111424</v>
       </c>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
@@ -1726,19 +1726,19 @@
         </is>
       </c>
       <c r="AG11" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="0" t="inlineStr">
         <is>
           <t>Impresso</t>
         </is>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" s="0"/>
       <c r="AK11" s="0" t="n">
-        <v>8768</v>
+        <v>10011</v>
       </c>
       <c r="AL11" s="0" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="AM11" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755427101013589350000006990</t>
+          <t>03399989731000000001764162001016789350000006990</t>
         </is>
       </c>
       <c r="AN11" s="0"/>
@@ -1771,7 +1771,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
-        <v>155956</v>
+        <v>139845</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -1782,23 +1782,23 @@
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44558</v>
+        <v>44436</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>JOEL NUNES DE OLIVEIRA</t>
+          <t>MARIA APARECIDA RODRIGUES VICENTE</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
@@ -1807,28 +1807,28 @@
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>70.44</v>
+        <v>71.38</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.34625</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>101944</v>
+        <v>80461</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>101944</v>
+        <v>80461</v>
       </c>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="AG12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="0" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="AJ12" s="0"/>
       <c r="AK12" s="0" t="n">
-        <v>9013</v>
+        <v>8282</v>
       </c>
       <c r="AL12" s="0" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="AM12" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755956701019989350000006900</t>
+          <t>03399989731000000001739845801016189350000006990</t>
         </is>
       </c>
       <c r="AN12" s="0"/>
@@ -1912,7 +1912,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
-        <v>152894</v>
+        <v>133192</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2</v>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44533</v>
+        <v>44383</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>44645</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>VANISE ARAÚJO DA SILVA NUNES</t>
+          <t>BRUNO DO NASCIMENTO MEIRA</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
@@ -1948,28 +1948,28 @@
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>61.15</v>
+        <v>61.17</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346215278</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>97518</v>
+        <v>71157</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>97518</v>
+        <v>71157</v>
       </c>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="AG13" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="0" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="AJ13" s="0"/>
       <c r="AK13" s="0" t="n">
-        <v>9383</v>
+        <v>2876</v>
       </c>
       <c r="AL13" s="0" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="AM13" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001752894701011989350000005990</t>
+          <t>03399989731000000001733192201011189350000005990</t>
         </is>
       </c>
       <c r="AN13" s="0"/>
@@ -2042,7 +2042,7 @@
       <c r="AQ13" s="0"/>
       <c r="AR13" s="0" t="inlineStr">
         <is>
-          <t>Física</t>
+          <t>Jurídica</t>
         </is>
       </c>
       <c r="AS13" s="0" t="inlineStr">
@@ -2053,7 +2053,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
-        <v>144996</v>
+        <v>134481</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
@@ -2064,23 +2064,23 @@
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44467</v>
+        <v>44392</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>RITA DAS NEVES DA SILVA</t>
+          <t>ADEILMA DA COSTA</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
@@ -2089,28 +2089,28 @@
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>70.44</v>
+        <v>71.38</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346215278</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>87019</v>
+        <v>73671</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>87019</v>
+        <v>73671</v>
       </c>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="AG14" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="0" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="AJ14" s="0"/>
       <c r="AK14" s="0" t="n">
-        <v>8546</v>
+        <v>9440</v>
       </c>
       <c r="AL14" s="0" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="AM14" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001744996601017189350000006900</t>
+          <t>03399989731000000001734481101011789350000006990</t>
         </is>
       </c>
       <c r="AN14" s="0"/>
@@ -2194,7 +2194,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
-        <v>144743</v>
+        <v>147283</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44467</v>
+        <v>44480</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>44645</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>JAILMA ALVES DE ARRUDA</t>
+          <t>VALDETE NUNES SAMPAIO</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
@@ -2230,28 +2230,28 @@
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>61.15</v>
+        <v>61.17</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>86767</v>
+        <v>89296</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>86767</v>
+        <v>89296</v>
       </c>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="AG15" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="0" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="AJ15" s="0"/>
       <c r="AK15" s="0" t="n">
-        <v>7775</v>
+        <v>2730</v>
       </c>
       <c r="AL15" s="0" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="AM15" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001744743201012689350000005990</t>
+          <t>03399989731000000001747283601012189350000005990</t>
         </is>
       </c>
       <c r="AN15" s="0"/>
@@ -2335,7 +2335,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
-        <v>145516</v>
+        <v>146518</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2</v>
@@ -2346,23 +2346,23 @@
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>59.90</v>
+        <v>64.90</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>59.90</v>
+        <v>64.90</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>ALCIR DA COSTA</t>
+          <t>MARINALDA DA SILVA GONCALVES</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
@@ -2371,28 +2371,28 @@
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>61.15</v>
+        <v>66.27</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>87539</v>
+        <v>88535</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>87539</v>
+        <v>88535</v>
       </c>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="AG16" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH16" s="0" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="AJ16" s="0"/>
       <c r="AK16" s="0" t="n">
-        <v>8740</v>
+        <v>8131</v>
       </c>
       <c r="AL16" s="0" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="AM16" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001745516801011189350000005990</t>
+          <t>03399989731000000001746518001014789350000006490</t>
         </is>
       </c>
       <c r="AN16" s="0"/>
@@ -2476,7 +2476,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
-        <v>145281</v>
+        <v>147303</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -2487,23 +2487,23 @@
         </is>
       </c>
       <c r="D17" s="1" t="n">
-        <v>44468</v>
+        <v>44480</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>69.00</v>
+        <v>57.00</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>69.00</v>
+        <v>57.00</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>GIRLENE FERREIRA DE CARVALHO</t>
+          <t>VALDETE NUNES SAMPAIO</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
@@ -2512,28 +2512,28 @@
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>70.44</v>
+        <v>58.21</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>87304</v>
+        <v>89316</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>87304</v>
+        <v>89316</v>
       </c>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="AG17" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="0" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AJ17" s="0"/>
       <c r="AK17" s="0" t="n">
-        <v>8617</v>
+        <v>8150</v>
       </c>
       <c r="AL17" s="0" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="AM17" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001745281901012889350000006900</t>
+          <t>03399989731000000001747303401013389350000005700</t>
         </is>
       </c>
       <c r="AN17" s="0"/>
@@ -2617,7 +2617,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
-        <v>149121</v>
+        <v>135539</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2</v>
@@ -2628,23 +2628,23 @@
         </is>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44491</v>
+        <v>44404</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>MARIA DA PAZ ALVES MARÇAL</t>
+          <t>RAYANE CLISSIA DA SILVA</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
@@ -2653,28 +2653,28 @@
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>71.36</v>
+        <v>70.46</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346226852</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>92453</v>
+        <v>74730</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>92453</v>
+        <v>74730</v>
       </c>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="AG18" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="0" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="AJ18" s="0"/>
       <c r="AK18" s="0" t="n">
-        <v>2893</v>
+        <v>8538</v>
       </c>
       <c r="AL18" s="0" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AM18" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001749121001017989350000006990</t>
+          <t>03399989731000000001735539201018189350000006900</t>
         </is>
       </c>
       <c r="AN18" s="0"/>
@@ -2758,7 +2758,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
-        <v>144773</v>
+        <v>137089</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2</v>
@@ -2769,23 +2769,23 @@
         </is>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44467</v>
+        <v>44414</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>MARIA GORETE SANTOS SILVA</t>
+          <t>LEONARDO ALVES DA SILVA</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
@@ -2794,28 +2794,28 @@
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>70.44</v>
+        <v>51.08</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346238426</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>86797</v>
+        <v>76271</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>86797</v>
+        <v>76271</v>
       </c>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="AG19" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="0" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="AJ19" s="0"/>
       <c r="AK19" s="0" t="n">
-        <v>8133</v>
+        <v>2782</v>
       </c>
       <c r="AL19" s="0" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="AM19" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001744773401011189350000006900</t>
+          <t>03399989731000000001737089801015489350000005000</t>
         </is>
       </c>
       <c r="AN19" s="0"/>
@@ -2899,7 +2899,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
-        <v>155269</v>
+        <v>155559</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2</v>
@@ -2916,17 +2916,17 @@
         <v>44645</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>69.90</v>
+        <v>50.00</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>69.90</v>
+        <v>50.00</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>EDNALVO JOSE DOS SANTOS</t>
+          <t>MACIANA DE SOUSA CARVALHO</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
@@ -2935,28 +2935,28 @@
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>71.36</v>
+        <v>51.08</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346273148</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>101242</v>
+        <v>101531</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>101242</v>
+        <v>101531</v>
       </c>
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="AJ20" s="0"/>
       <c r="AK20" s="0" t="n">
-        <v>7774</v>
+        <v>7544</v>
       </c>
       <c r="AL20" s="0" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="AM20" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755269401018389350000006990</t>
+          <t>03399989731000000001755559601012489350000005000</t>
         </is>
       </c>
       <c r="AN20" s="0"/>
@@ -3040,7 +3040,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
-        <v>139410</v>
+        <v>156071</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2</v>
@@ -3051,23 +3051,23 @@
         </is>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44434</v>
+        <v>44559</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>DANIELA ALVES DOS SANTOS</t>
+          <t>NILVANIA DOS SANTOS LIRA</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
@@ -3076,28 +3076,28 @@
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>70.44</v>
+        <v>51.08</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346273148</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>80025</v>
+        <v>102059</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>80025</v>
+        <v>102059</v>
       </c>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="AG21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="0" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="AJ21" s="0"/>
       <c r="AK21" s="0" t="n">
-        <v>8296</v>
+        <v>2979</v>
       </c>
       <c r="AL21" s="0" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="AM21" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001739410001018389350000006900</t>
+          <t>03399989731000000001756071901013389350000005000</t>
         </is>
       </c>
       <c r="AN21" s="0"/>
@@ -3181,7 +3181,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
-        <v>144791</v>
+        <v>155311</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -3192,23 +3192,23 @@
         </is>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44467</v>
+        <v>44551</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>64.90</v>
+        <v>69.00</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>64.90</v>
+        <v>69.00</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>MARIA DA GUIA DA COSTA</t>
+          <t>IDELVAIR MARIA DE SOUZA</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
@@ -3217,28 +3217,28 @@
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>66.25</v>
+        <v>70.46</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346273148</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>86815</v>
+        <v>101284</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>86815</v>
+        <v>101284</v>
       </c>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="AG22" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH22" s="0" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="AJ22" s="0"/>
       <c r="AK22" s="0" t="n">
-        <v>8156</v>
+        <v>8035</v>
       </c>
       <c r="AL22" s="0" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AM22" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001744791201013189350000006490</t>
+          <t>03399989731000000001755311901015889350000006900</t>
         </is>
       </c>
       <c r="AN22" s="0"/>
@@ -3322,7 +3322,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
-        <v>149144</v>
+        <v>147652</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44491</v>
+        <v>44482</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>44645</v>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>MARIA DO SOCORRO MONTEIRO DE ARAÚJO</t>
+          <t>MARIA MADALENA GOMES FERREIRA</t>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
@@ -3358,28 +3358,28 @@
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>71.36</v>
+        <v>71.38</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>92476</v>
+        <v>89663</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>92476</v>
+        <v>89663</v>
       </c>
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="AG23" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH23" s="0" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AJ23" s="0"/>
       <c r="AK23" s="0" t="n">
-        <v>9358</v>
+        <v>7665</v>
       </c>
       <c r="AL23" s="0" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="AM23" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001749144001010589350000006990</t>
+          <t>03399989731000000001747652101016889350000006990</t>
         </is>
       </c>
       <c r="AN23" s="0"/>
@@ -3463,7 +3463,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
-        <v>155547</v>
+        <v>150476</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
@@ -3474,23 +3474,23 @@
         </is>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44551</v>
+        <v>44503</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>50.00</v>
+        <v>59.90</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>50.00</v>
+        <v>59.90</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I24" s="0" t="inlineStr">
         <is>
-          <t>JOSÉ ROSIVALDO SILVA DOS SANTOS</t>
+          <t>ISABEL CRISTINA PEREIRA DE LIMA</t>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
@@ -3499,28 +3499,28 @@
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>51.06</v>
+        <v>61.17</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>101519</v>
+        <v>93776</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>101519</v>
+        <v>93776</v>
       </c>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="AG24" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24" s="0" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="AJ24" s="0"/>
       <c r="AK24" s="0" t="n">
-        <v>7766</v>
+        <v>3023</v>
       </c>
       <c r="AL24" s="0" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AM24" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755547201016689350000005000</t>
+          <t>03399989731000000001750476201012489350000005990</t>
         </is>
       </c>
       <c r="AN24" s="0"/>
@@ -3604,7 +3604,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
-        <v>153248</v>
+        <v>149968</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2</v>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44538</v>
+        <v>44496</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>44645</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>ELISÂNGELA ALVES DA SILVA</t>
+          <t>JOSE FABIO GUIMARÃES DA SILVA</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
@@ -3640,28 +3640,28 @@
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>70.44</v>
+        <v>70.46</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>97878</v>
+        <v>93275</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>97878</v>
+        <v>93275</v>
       </c>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="AG25" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH25" s="0" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="AJ25" s="0"/>
       <c r="AK25" s="0" t="n">
-        <v>9908</v>
+        <v>8660</v>
       </c>
       <c r="AL25" s="0" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="AM25" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001753248001017289350000006900</t>
+          <t>03399989731000000001749968801016989350000006900</t>
         </is>
       </c>
       <c r="AN25" s="0"/>
@@ -3745,7 +3745,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
-        <v>150696</v>
+        <v>139219</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2</v>
@@ -3756,23 +3756,23 @@
         </is>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44508</v>
+        <v>44433</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>Dulcilene do Carmo de Souza</t>
+          <t>JACILENE FERREIRA MACHADO</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
@@ -3781,28 +3781,28 @@
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>70.44</v>
+        <v>71.38</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346238426</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>93992</v>
+        <v>79833</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>93992</v>
+        <v>79833</v>
       </c>
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="AG26" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="0" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="AJ26" s="0"/>
       <c r="AK26" s="0" t="n">
-        <v>9430</v>
+        <v>9725</v>
       </c>
       <c r="AL26" s="0" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="AM26" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001750696001010189350000006900</t>
+          <t>03399989731000000001739219001011189350000006990</t>
         </is>
       </c>
       <c r="AN26" s="0"/>
@@ -3886,7 +3886,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
-        <v>150702</v>
+        <v>162777</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44508</v>
+        <v>44602</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>44645</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>ERIVANIA SOUSA SANTOS</t>
+          <t>LUDIMILA COSTA SILVA BATISTA</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
@@ -3922,28 +3922,28 @@
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>70.44</v>
+        <v>70.46</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>44649.338159722</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>93998</v>
+        <v>44650.346284722</v>
+      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0" t="inlineStr">
+        <is>
+          <t>110041/0</t>
+        </is>
       </c>
       <c r="R27" s="0" t="n">
-        <v>93998</v>
+        <v>110041</v>
       </c>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
@@ -3982,19 +3982,19 @@
         </is>
       </c>
       <c r="AG27" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="0" t="inlineStr">
         <is>
           <t>Impresso</t>
         </is>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AJ27" s="0"/>
       <c r="AK27" s="0" t="n">
-        <v>8620</v>
+        <v>10000</v>
       </c>
       <c r="AL27" s="0" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="AM27" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001750702801015189350000006900</t>
+          <t>03399989731000000001762777501016889350000006900</t>
         </is>
       </c>
       <c r="AN27" s="0"/>
@@ -4027,7 +4027,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
-        <v>155829</v>
+        <v>150495</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
@@ -4038,23 +4038,23 @@
         </is>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44557</v>
+        <v>44503</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>DJAIR PORFIRIO GOMES</t>
+          <t>MARIA JOSÉ DA SILVA</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
@@ -4063,28 +4063,28 @@
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>71.36</v>
+        <v>70.46</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>101817</v>
+        <v>93795</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>101817</v>
+        <v>93795</v>
       </c>
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="AG28" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH28" s="0" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AJ28" s="0"/>
       <c r="AK28" s="0" t="n">
-        <v>9929</v>
+        <v>9380</v>
       </c>
       <c r="AL28" s="0" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="AM28" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755829301013989350000006990</t>
+          <t>03399989731000000001750495901014589350000006900</t>
         </is>
       </c>
       <c r="AN28" s="0"/>
@@ -4168,7 +4168,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
-        <v>146363</v>
+        <v>157924</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
@@ -4179,23 +4179,23 @@
         </is>
       </c>
       <c r="D29" s="1" t="n">
-        <v>44473</v>
+        <v>44580</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>59.90</v>
+        <v>69.90</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>59.90</v>
+        <v>69.90</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>EDILSON FERREIRA DA COSTA</t>
+          <t>MARIA JOSÉ LAURENTINO DA SILVA</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
@@ -4204,28 +4204,28 @@
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>61.15</v>
+        <v>71.37</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346284722</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>88380</v>
+        <v>103892</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>88380</v>
+        <v>103892</v>
       </c>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="AG29" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="0" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="AJ29" s="0"/>
       <c r="AK29" s="0" t="n">
-        <v>2807</v>
+        <v>9958</v>
       </c>
       <c r="AL29" s="0" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AM29" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001746363201016189350000005990</t>
+          <t>03399989731000000001757924001019589350000006990</t>
         </is>
       </c>
       <c r="AN29" s="0"/>
@@ -4309,7 +4309,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
-        <v>155323</v>
+        <v>137708</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -4320,23 +4320,23 @@
         </is>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44551</v>
+        <v>44418</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>JOSEANO DA SILVA NAZÁRIO</t>
+          <t>MARIA APARECIDA ALVES FERREIRA</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
@@ -4345,28 +4345,28 @@
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>70.44</v>
+        <v>51.08</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346238426</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>101296</v>
+        <v>76879</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>101296</v>
+        <v>76879</v>
       </c>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="AJ30" s="0"/>
       <c r="AK30" s="0" t="n">
-        <v>9489</v>
+        <v>2595</v>
       </c>
       <c r="AL30" s="0" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="AM30" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755323201016689350000006900</t>
+          <t>03399989731000000001737708601010289350000005000</t>
         </is>
       </c>
       <c r="AN30" s="0"/>
@@ -4450,7 +4450,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
-        <v>145342</v>
+        <v>136394</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -4461,23 +4461,23 @@
         </is>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44468</v>
+        <v>44411</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>69.00</v>
+        <v>50.00</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>ANALICE DA SILVA E SOUSA</t>
+          <t>MANOEL FRANCISCO GOMES</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
@@ -4486,28 +4486,28 @@
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>70.44</v>
+        <v>50.00</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346238426</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>18</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>87365</v>
+        <v>75579</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>87365</v>
+        <v>75579</v>
       </c>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="AG31" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="0" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="AJ31" s="0"/>
       <c r="AK31" s="0" t="n">
-        <v>8632</v>
+        <v>8132</v>
       </c>
       <c r="AL31" s="0" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="AM31" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001745342401010189350000006900</t>
+          <t>03399989731000000001736394801017389400000005000</t>
         </is>
       </c>
       <c r="AN31" s="0"/>
@@ -4591,7 +4591,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
-        <v>146110</v>
+        <v>136167</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2</v>
@@ -4602,23 +4602,23 @@
         </is>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44471</v>
+        <v>44410</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>59.90</v>
+        <v>50.00</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>59.90</v>
+        <v>50.00</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>PEDRO JOÃO MACIEL MARQUES</t>
+          <t>IVA LEITE DE SOUZA</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
@@ -4627,28 +4627,28 @@
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>61.15</v>
+        <v>50.00</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346226852</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>88129</v>
+        <v>75352</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>88129</v>
+        <v>75352</v>
       </c>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="AG32" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="0" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="AJ32" s="0"/>
       <c r="AK32" s="0" t="n">
-        <v>9401</v>
+        <v>2564</v>
       </c>
       <c r="AL32" s="0" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="AM32" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001746110901017489350000005990</t>
+          <t>03399989731000000001736167801012289400000005000</t>
         </is>
       </c>
       <c r="AN32" s="0"/>
@@ -4732,7 +4732,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
-        <v>136642</v>
+        <v>136179</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
@@ -4743,23 +4743,23 @@
         </is>
       </c>
       <c r="D33" s="1" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>59.90</v>
+        <v>69.90</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>59.90</v>
+        <v>69.90</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>RAIMUNDA ALVES DE SOUSA</t>
+          <t>JOHN ÉVERIS GOMES DE ARAÚJO</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
@@ -4768,28 +4768,28 @@
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>61.15</v>
+        <v>69.90</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346226852</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>19</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>75824</v>
+        <v>75364</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>75824</v>
+        <v>75364</v>
       </c>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="AJ33" s="0"/>
       <c r="AK33" s="0" t="n">
-        <v>7727</v>
+        <v>2570</v>
       </c>
       <c r="AL33" s="0" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="AM33" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001736642401016989350000005990</t>
+          <t>03399989731000000001736179101013189400000006990</t>
         </is>
       </c>
       <c r="AN33" s="0"/>
@@ -4873,7 +4873,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
-        <v>163289</v>
+        <v>150558</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2</v>
@@ -4884,23 +4884,23 @@
         </is>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44603</v>
+        <v>44505</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>44645</v>
+        <v>44656</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>69.00</v>
+        <v>59.90</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>69.00</v>
+        <v>59.90</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>MARIA PRISCILA DE SOUSA LIMA</t>
+          <t>CLEONILDA BISERRA DA SILVA</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
@@ -4909,28 +4909,28 @@
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>70.44</v>
+        <v>59.90</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>110552</v>
+        <v>93856</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>110552</v>
+        <v>93856</v>
       </c>
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="AG34" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AH34" s="0" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="AJ34" s="0"/>
       <c r="AK34" s="0" t="n">
-        <v>10005</v>
+        <v>7589</v>
       </c>
       <c r="AL34" s="0" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="AM34" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001763289201012389350000006900</t>
+          <t>03399989731000000001750558001017989460000005990</t>
         </is>
       </c>
       <c r="AN34" s="0"/>
@@ -5014,7 +5014,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
-        <v>155613</v>
+        <v>147009</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -5025,23 +5025,23 @@
         </is>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44551</v>
+        <v>44476</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>44645</v>
+        <v>44656</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>50.00</v>
+        <v>57.00</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>50.00</v>
+        <v>57.00</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>DAMIAO LEOPOLDINO DE MELO</t>
+          <t>QUITÉRIA MARIA DE ARAÚJO GOMES</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -5050,28 +5050,28 @@
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>51.06</v>
+        <v>57.00</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>101585</v>
+        <v>89026</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>101585</v>
+        <v>89026</v>
       </c>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="AG35" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH35" s="0" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="AJ35" s="0"/>
       <c r="AK35" s="0" t="n">
-        <v>7674</v>
+        <v>8607</v>
       </c>
       <c r="AL35" s="0" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="AM35" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755613401011489350000005000</t>
+          <t>03399989731000000001747009401010189460000005700</t>
         </is>
       </c>
       <c r="AN35" s="0"/>
@@ -5155,7 +5155,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
-        <v>148975</v>
+        <v>142418</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -5166,23 +5166,23 @@
         </is>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44490</v>
+        <v>44453</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>44645</v>
+        <v>44656</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>59.90</v>
+        <v>50.00</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>59.90</v>
+        <v>50.00</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>ERINALDO BORGES ARAÚJO</t>
+          <t>MARIA EDISLANI EMILIANO DE SOUSA</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
@@ -5191,28 +5191,28 @@
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>61.15</v>
+        <v>50.00</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.34625</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>92308</v>
+        <v>83063</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>92308</v>
+        <v>83063</v>
       </c>
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
@@ -5251,7 +5251,7 @@
         </is>
       </c>
       <c r="AG36" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="0" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="AJ36" s="0"/>
       <c r="AK36" s="0" t="n">
-        <v>7558</v>
+        <v>2939</v>
       </c>
       <c r="AL36" s="0" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="AM36" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001748975501015189350000005990</t>
+          <t>03399989731000000001742418101012389460000005000</t>
         </is>
       </c>
       <c r="AN36" s="0"/>
@@ -5296,7 +5296,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
-        <v>151279</v>
+        <v>156608</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -5307,10 +5307,10 @@
         </is>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44516</v>
+        <v>44564</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>44645</v>
+        <v>44656</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>69.00</v>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>MARIA ALEXANDRINA DA COSTA SILVA</t>
+          <t>JACIONE ARAUJO DE LIMA</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
@@ -5332,28 +5332,28 @@
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>70.44</v>
+        <v>69.00</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346284722</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>94566</v>
+        <v>102594</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>94566</v>
+        <v>102594</v>
       </c>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="AJ37" s="0"/>
       <c r="AK37" s="0" t="n">
-        <v>8605</v>
+        <v>8081</v>
       </c>
       <c r="AL37" s="0" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="AM37" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001751279001013889350000006900</t>
+          <t>03399989731000000001756608301018789460000006900</t>
         </is>
       </c>
       <c r="AN37" s="0"/>
@@ -5437,7 +5437,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
-        <v>142841</v>
+        <v>156402</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2</v>
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44456</v>
+        <v>44564</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>44645</v>
+        <v>44656</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>69.00</v>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>ANTONIO AILTON FIRMINO DE FREITAS</t>
+          <t>ERINALDO DE ARAÚJO LIMA</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
@@ -5473,28 +5473,28 @@
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>70.44</v>
+        <v>69.00</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M38" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346284722</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>84866</v>
+        <v>102389</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>84866</v>
+        <v>102389</v>
       </c>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="AG38" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH38" s="0" t="inlineStr">
         <is>
@@ -5541,11 +5541,11 @@
         </is>
       </c>
       <c r="AI38" s="0" t="n">
-        <v>0</v>
+        <v>2785</v>
       </c>
       <c r="AJ38" s="0"/>
       <c r="AK38" s="0" t="n">
-        <v>9777</v>
+        <v>2785</v>
       </c>
       <c r="AL38" s="0" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="AM38" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001742841101019789350000006900</t>
+          <t>03399989731000000001756402101010289460000006900</t>
         </is>
       </c>
       <c r="AN38" s="0"/>
@@ -5578,7 +5578,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
-        <v>136709</v>
+        <v>159736</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2</v>
@@ -5589,23 +5589,23 @@
         </is>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44413</v>
+        <v>44587</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>69.90</v>
+        <v>59.90</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>69.90</v>
+        <v>59.90</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>EDNALVA BENTO FERREIRA DE MORAIS</t>
+          <t>RAIMUNDO ALVES MONTEIRO</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
@@ -5614,28 +5614,28 @@
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>69.90</v>
+        <v>59.90</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346284722</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>19</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>75891</v>
+        <v>107026</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>75891</v>
+        <v>107026</v>
       </c>
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="AG39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="0" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="AJ39" s="0"/>
       <c r="AK39" s="0" t="n">
-        <v>2998</v>
+        <v>8456</v>
       </c>
       <c r="AL39" s="0" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="AM39" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001736709901015189400000006990</t>
+          <t>03399989731000000001759736101011889460000005990</t>
         </is>
       </c>
       <c r="AN39" s="0"/>
@@ -5719,7 +5719,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
-        <v>139054</v>
+        <v>153894</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2</v>
@@ -5730,23 +5730,23 @@
         </is>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44431</v>
+        <v>44541</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>MARIA MADALENA GOMES BEZZERA</t>
+          <t>CLAUDIA DIAS ALVES DE ARAÚJO</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
@@ -5755,28 +5755,28 @@
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>69.90</v>
+        <v>69.00</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>79668</v>
+        <v>98520</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>79668</v>
+        <v>98520</v>
       </c>
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="AG40" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH40" s="0" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="AJ40" s="0"/>
       <c r="AK40" s="0" t="n">
-        <v>7521</v>
+        <v>8330</v>
       </c>
       <c r="AL40" s="0" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="AM40" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001739054601016389400000006990</t>
+          <t>03399989731000000001753894201010489520000006900</t>
         </is>
       </c>
       <c r="AN40" s="0"/>
@@ -5860,7 +5860,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
-        <v>136061</v>
+        <v>148028</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2</v>
@@ -5871,23 +5871,23 @@
         </is>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44408</v>
+        <v>44483</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>59.90</v>
+        <v>64.90</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>59.90</v>
+        <v>64.90</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>IVANI MARIA DOS SANTOS</t>
+          <t>RAIMUNDA DE ARAUJO GOMES</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
@@ -5896,28 +5896,28 @@
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>59.90</v>
+        <v>64.90</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>44649.338159722</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>75244</v>
+        <v>91367</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>75244</v>
+        <v>91367</v>
       </c>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="AJ41" s="0"/>
       <c r="AK41" s="0" t="n">
-        <v>2741</v>
+        <v>8145</v>
       </c>
       <c r="AL41" s="0" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="AM41" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001736061201012889400000005990</t>
+          <t>03399989731000000001748028601010789520000006490</t>
         </is>
       </c>
       <c r="AN41" s="0"/>
@@ -6001,7 +6001,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
-        <v>155992</v>
+        <v>156148</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
@@ -6012,23 +6012,23 @@
         </is>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44558</v>
+        <v>44560</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>69.00</v>
+        <v>79.90</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>69.00</v>
+        <v>79.90</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>EDINETE GUEDES DE OLIVEIRA</t>
+          <t>FRANCISCO DE ASSIS DA COSTA</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
@@ -6037,28 +6037,28 @@
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>69.00</v>
+        <v>79.90</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346284722</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>19</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>101980</v>
+        <v>102135</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>101980</v>
+        <v>102135</v>
       </c>
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="AG42" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH42" s="0" t="inlineStr">
         <is>
@@ -6105,11 +6105,11 @@
         </is>
       </c>
       <c r="AI42" s="0" t="n">
-        <v>0</v>
+        <v>2551</v>
       </c>
       <c r="AJ42" s="0"/>
       <c r="AK42" s="0" t="n">
-        <v>2941</v>
+        <v>2551</v>
       </c>
       <c r="AL42" s="0" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="AM42" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001755992301014789460000006900</t>
+          <t>03399989731000000001756148001011189520000007990</t>
         </is>
       </c>
       <c r="AN42" s="0"/>
@@ -6142,7 +6142,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
-        <v>158307</v>
+        <v>145318</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -6153,23 +6153,23 @@
         </is>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44583</v>
+        <v>44468</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>44656</v>
+        <v>44666</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0.00</v>
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>JAQUELINE GRASIELE DA SILVA</t>
+          <t>MARGARIDA RODRIGUES DE LIMA SILVA</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
@@ -6178,28 +6178,28 @@
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>69.00</v>
+        <v>69.90</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>44649.338171296</v>
+        <v>44650.346261574</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>105600</v>
+        <v>87341</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>105600</v>
+        <v>87341</v>
       </c>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="AG43" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH43" s="0" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="AJ43" s="0"/>
       <c r="AK43" s="0" t="n">
-        <v>8341</v>
+        <v>8347</v>
       </c>
       <c r="AL43" s="0" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="AM43" s="0" t="inlineStr">
         <is>
-          <t>03399989731000000001758307701019289460000006900</t>
+          <t>03399989731000000001745318101016189560000006990</t>
         </is>
       </c>
       <c r="AN43" s="0"/>
@@ -6276,429 +6276,6 @@
         </is>
       </c>
       <c r="AS43" s="0" t="inlineStr">
-        <is>
-          <t>Receitas Vendas de Serviços</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="n">
-        <v>146639</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>Recebido</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>44475</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>59.90</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>59.90</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>0.00</v>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>MARIA AUXILIADORA DA SILVA</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>Brejinho PE</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>59.90</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>44648</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <v>44649.338159722</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>88655</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>88655</v>
-      </c>
-      <c r="S44" s="0"/>
-      <c r="T44" s="0"/>
-      <c r="U44" s="0" t="inlineStr">
-        <is>
-          <t>Boleto</t>
-        </is>
-      </c>
-      <c r="V44" s="2" t="n">
-        <v>0.00</v>
-      </c>
-      <c r="W44" s="1"/>
-      <c r="X44" s="0"/>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
-      <c r="AB44" s="0"/>
-      <c r="AC44" s="0" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="AD44" s="0" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="AE44" s="0" t="inlineStr">
-        <is>
-          <t>Recebido automaticamente</t>
-        </is>
-      </c>
-      <c r="AF44" s="0" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="AG44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH44" s="0" t="inlineStr">
-        <is>
-          <t>Impresso</t>
-        </is>
-      </c>
-      <c r="AI44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="0"/>
-      <c r="AK44" s="0" t="n">
-        <v>8107</v>
-      </c>
-      <c r="AL44" s="0" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AM44" s="0" t="inlineStr">
-        <is>
-          <t>03399989731000000001746639901019189460000005990</t>
-        </is>
-      </c>
-      <c r="AN44" s="0"/>
-      <c r="AO44" s="0" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="AP44" s="0"/>
-      <c r="AQ44" s="0"/>
-      <c r="AR44" s="0" t="inlineStr">
-        <is>
-          <t>Física</t>
-        </is>
-      </c>
-      <c r="AS44" s="0" t="inlineStr">
-        <is>
-          <t>Receitas Vendas de Serviços</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n">
-        <v>152272</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>Recebido</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>44525</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>50.00</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>50.00</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>0.00</v>
-      </c>
-      <c r="I45" s="0" t="inlineStr">
-        <is>
-          <t>JOSINALDO DA SILVA PAIZINHO</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>Brejinho PE</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>50.00</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>44648</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <v>44649.338171296</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>96901</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>96901</v>
-      </c>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="0" t="inlineStr">
-        <is>
-          <t>Boleto</t>
-        </is>
-      </c>
-      <c r="V45" s="2" t="n">
-        <v>0.00</v>
-      </c>
-      <c r="W45" s="1"/>
-      <c r="X45" s="0"/>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
-      <c r="AB45" s="0"/>
-      <c r="AC45" s="0" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="AD45" s="0" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="AE45" s="0" t="inlineStr">
-        <is>
-          <t>Recebido automaticamente</t>
-        </is>
-      </c>
-      <c r="AF45" s="0" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="AG45" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH45" s="0" t="inlineStr">
-        <is>
-          <t>Impresso</t>
-        </is>
-      </c>
-      <c r="AI45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="0"/>
-      <c r="AK45" s="0" t="n">
-        <v>7765</v>
-      </c>
-      <c r="AL45" s="0" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AM45" s="0" t="inlineStr">
-        <is>
-          <t>03399989731000000001752272801011389460000005000</t>
-        </is>
-      </c>
-      <c r="AN45" s="0"/>
-      <c r="AO45" s="0" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="AP45" s="0"/>
-      <c r="AQ45" s="0"/>
-      <c r="AR45" s="0" t="inlineStr">
-        <is>
-          <t>Física</t>
-        </is>
-      </c>
-      <c r="AS45" s="0" t="inlineStr">
-        <is>
-          <t>Receitas Vendas de Serviços</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="n">
-        <v>137829</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>Recebido</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>44419</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>44662</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>50.00</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>50.00</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>0.00</v>
-      </c>
-      <c r="I46" s="0" t="inlineStr">
-        <is>
-          <t>LUIS BATISTA NETO</t>
-        </is>
-      </c>
-      <c r="J46" s="0" t="inlineStr">
-        <is>
-          <t>Brejinho PE</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>50.00</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>44648</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>44649.338159722</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <v>76999</v>
-      </c>
-      <c r="R46" s="0" t="n">
-        <v>76999</v>
-      </c>
-      <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="0" t="inlineStr">
-        <is>
-          <t>Boleto</t>
-        </is>
-      </c>
-      <c r="V46" s="2" t="n">
-        <v>0.00</v>
-      </c>
-      <c r="W46" s="1"/>
-      <c r="X46" s="0"/>
-      <c r="Y46" s="0"/>
-      <c r="Z46" s="0"/>
-      <c r="AA46" s="0"/>
-      <c r="AB46" s="0"/>
-      <c r="AC46" s="0" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="AD46" s="0" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="AE46" s="0" t="inlineStr">
-        <is>
-          <t>Recebido automaticamente</t>
-        </is>
-      </c>
-      <c r="AF46" s="0" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="AG46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH46" s="0" t="inlineStr">
-        <is>
-          <t>Impresso</t>
-        </is>
-      </c>
-      <c r="AI46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="0"/>
-      <c r="AK46" s="0" t="n">
-        <v>2788</v>
-      </c>
-      <c r="AL46" s="0" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AM46" s="0" t="inlineStr">
-        <is>
-          <t>03399989731000000001737829501016189520000005000</t>
-        </is>
-      </c>
-      <c r="AN46" s="0"/>
-      <c r="AO46" s="0" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="AP46" s="0"/>
-      <c r="AQ46" s="0"/>
-      <c r="AR46" s="0" t="inlineStr">
-        <is>
-          <t>Física</t>
-        </is>
-      </c>
-      <c r="AS46" s="0" t="inlineStr">
         <is>
           <t>Receitas Vendas de Serviços</t>
         </is>
